--- a/2022/SAMSUNG/AUGUST/02.08.2022/SAMSUNG Bank Statement August-2022.xlsx
+++ b/2022/SAMSUNG/AUGUST/02.08.2022/SAMSUNG Bank Statement August-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3608,9 +3608,72 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3623,9 +3686,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3637,66 +3697,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9607,11 +9607,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9626,6 +9621,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9638,8 +9638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33337,7 +33337,7 @@
   </sheetPr>
   <dimension ref="A1:R214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -33364,28 +33364,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="473" t="s">
+      <c r="A1" s="458" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="475"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="460"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
+      <c r="I1" s="473"/>
+      <c r="J1" s="473"/>
+      <c r="K1" s="473"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="482" t="s">
+      <c r="A2" s="467" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="484"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="468"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="469"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -33406,13 +33406,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="476" t="s">
+      <c r="A3" s="461" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="477"/>
-      <c r="C3" s="477"/>
-      <c r="D3" s="477"/>
-      <c r="E3" s="478"/>
+      <c r="B3" s="462"/>
+      <c r="C3" s="462"/>
+      <c r="D3" s="462"/>
+      <c r="E3" s="463"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -33439,13 +33439,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="485" t="s">
+      <c r="A4" s="470" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="486"/>
-      <c r="C4" s="486"/>
-      <c r="D4" s="486"/>
-      <c r="E4" s="487"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
+      <c r="D4" s="471"/>
+      <c r="E4" s="472"/>
       <c r="F4" s="5"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -33942,11 +33942,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="280"/>
-      <c r="I17" s="458" t="s">
+      <c r="I17" s="474" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="458"/>
-      <c r="K17" s="458"/>
+      <c r="J17" s="474"/>
+      <c r="K17" s="474"/>
       <c r="L17" s="314">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -33969,11 +33969,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="280"/>
-      <c r="I18" s="469" t="s">
+      <c r="I18" s="475" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="469"/>
-      <c r="K18" s="469"/>
+      <c r="J18" s="475"/>
+      <c r="K18" s="475"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -33985,21 +33985,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="479" t="s">
+      <c r="A19" s="464" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="480"/>
-      <c r="C19" s="480"/>
-      <c r="D19" s="480"/>
-      <c r="E19" s="481"/>
+      <c r="B19" s="465"/>
+      <c r="C19" s="465"/>
+      <c r="D19" s="465"/>
+      <c r="E19" s="466"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="464" t="s">
+      <c r="I19" s="484" t="s">
         <v>165</v>
       </c>
-      <c r="J19" s="464"/>
-      <c r="K19" s="464"/>
+      <c r="J19" s="484"/>
+      <c r="K19" s="484"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -34027,11 +34027,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="463" t="s">
+      <c r="I20" s="476" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="463"/>
-      <c r="K20" s="463"/>
+      <c r="J20" s="476"/>
+      <c r="K20" s="476"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -34058,11 +34058,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="470" t="s">
+      <c r="I21" s="477" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="471"/>
-      <c r="K21" s="472"/>
+      <c r="J21" s="478"/>
+      <c r="K21" s="479"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -34087,11 +34087,11 @@
       <c r="E22" s="245">
         <v>343006</v>
       </c>
-      <c r="I22" s="464" t="s">
+      <c r="I22" s="484" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="464"/>
-      <c r="K22" s="464"/>
+      <c r="J22" s="484"/>
+      <c r="K22" s="484"/>
       <c r="L22" s="352">
         <v>20000</v>
       </c>
@@ -34116,11 +34116,11 @@
       <c r="E23" s="245">
         <v>45185</v>
       </c>
-      <c r="I23" s="459" t="s">
+      <c r="I23" s="480" t="s">
         <v>197</v>
       </c>
-      <c r="J23" s="460"/>
-      <c r="K23" s="461"/>
+      <c r="J23" s="481"/>
+      <c r="K23" s="482"/>
       <c r="L23" s="352">
         <v>40000</v>
       </c>
@@ -34145,9 +34145,9 @@
       <c r="E24" s="303">
         <v>23000</v>
       </c>
-      <c r="I24" s="465"/>
-      <c r="J24" s="466"/>
-      <c r="K24" s="467"/>
+      <c r="I24" s="485"/>
+      <c r="J24" s="486"/>
+      <c r="K24" s="487"/>
       <c r="L24" s="334"/>
       <c r="M24" s="334"/>
       <c r="N24" s="7"/>
@@ -34170,11 +34170,11 @@
       <c r="E25" s="245">
         <v>149330</v>
       </c>
-      <c r="I25" s="458" t="s">
+      <c r="I25" s="474" t="s">
         <v>170</v>
       </c>
-      <c r="J25" s="458"/>
-      <c r="K25" s="458"/>
+      <c r="J25" s="474"/>
+      <c r="K25" s="474"/>
       <c r="L25" s="314">
         <f>L17-L18-L19-L20-L21-L22-L23-L24</f>
         <v>128150</v>
@@ -34227,11 +34227,11 @@
       <c r="B28" s="33"/>
       <c r="C28" s="5"/>
       <c r="D28" s="32"/>
-      <c r="I28" s="462" t="s">
+      <c r="I28" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="J28" s="463"/>
-      <c r="K28" s="463"/>
+      <c r="J28" s="476"/>
+      <c r="K28" s="476"/>
       <c r="L28" s="365">
         <v>47500</v>
       </c>
@@ -34245,11 +34245,11 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I29" s="462" t="s">
+      <c r="I29" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="463"/>
-      <c r="K29" s="463"/>
+      <c r="J29" s="476"/>
+      <c r="K29" s="476"/>
       <c r="L29" s="365">
         <v>50000</v>
       </c>
@@ -34264,9 +34264,9 @@
     </row>
     <row r="30" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="E30" s="14"/>
-      <c r="I30" s="459"/>
-      <c r="J30" s="460"/>
-      <c r="K30" s="461"/>
+      <c r="I30" s="480"/>
+      <c r="J30" s="481"/>
+      <c r="K30" s="482"/>
       <c r="L30" s="365"/>
       <c r="M30" s="365"/>
       <c r="N30" s="7"/>
@@ -34276,11 +34276,11 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="20.100000000000001" customHeight="1">
-      <c r="I31" s="458" t="s">
+      <c r="I31" s="474" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="458"/>
-      <c r="K31" s="458"/>
+      <c r="J31" s="474"/>
+      <c r="K31" s="474"/>
       <c r="L31" s="363" t="e">
         <f>#REF!-#REF!-L28-L29-L30</f>
         <v>#REF!</v>
@@ -36986,16 +36986,6 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I25:K25"/>
@@ -37005,6 +36995,16 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
